--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansuwada/Desktop/HTB/McsThesis/Code-Thesis/Customer-persona-clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D47B34-1B07-794B-B8F1-9F206F412B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD6BB0-499E-D046-A0A1-3BB680654828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,21 +1343,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA71" sqref="A71:XFD71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="140.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="141.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="82.1640625" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="63.83203125" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="15" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="17" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2003,7 +2010,7 @@
         <v>45411.3840277778</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2326,7 +2333,7 @@
         <v>45411.357638888898</v>
       </c>
     </row>
-    <row r="4" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -2649,7 +2656,7 @@
         <v>45411.351388888899</v>
       </c>
     </row>
-    <row r="5" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>45411.340972222199</v>
       </c>
     </row>
-    <row r="6" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -3295,7 +3302,7 @@
         <v>45408.845138888901</v>
       </c>
     </row>
-    <row r="7" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -3618,7 +3625,7 @@
         <v>45408.209027777797</v>
       </c>
     </row>
-    <row r="8" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>45407.754861111098</v>
       </c>
     </row>
-    <row r="9" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>45407.619444444397</v>
       </c>
     </row>
-    <row r="10" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -4587,7 +4594,7 @@
         <v>45407.524305555598</v>
       </c>
     </row>
-    <row r="11" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -4910,7 +4917,7 @@
         <v>45407.333333333299</v>
       </c>
     </row>
-    <row r="12" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -5233,7 +5240,7 @@
         <v>45407.322916666701</v>
       </c>
     </row>
-    <row r="13" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -5556,7 +5563,7 @@
         <v>45407.322222222203</v>
       </c>
     </row>
-    <row r="14" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -5879,7 +5886,7 @@
         <v>45407.305555555598</v>
       </c>
     </row>
-    <row r="15" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -6202,7 +6209,7 @@
         <v>45407.28125</v>
       </c>
     </row>
-    <row r="16" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>169</v>
       </c>
@@ -6525,7 +6532,7 @@
         <v>45407.274305555598</v>
       </c>
     </row>
-    <row r="17" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -6848,7 +6855,7 @@
         <v>45406.891666666699</v>
       </c>
     </row>
-    <row r="18" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -7171,7 +7178,7 @@
         <v>45406.882638888899</v>
       </c>
     </row>
-    <row r="19" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>45406.880555555603</v>
       </c>
     </row>
-    <row r="20" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -7817,7 +7824,7 @@
         <v>45406.840277777803</v>
       </c>
     </row>
-    <row r="21" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -8140,7 +8147,7 @@
         <v>45406.809027777803</v>
       </c>
     </row>
-    <row r="22" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -8463,7 +8470,7 @@
         <v>45406.802083333299</v>
       </c>
     </row>
-    <row r="23" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -8786,7 +8793,7 @@
         <v>45406.752083333296</v>
       </c>
     </row>
-    <row r="24" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
@@ -9109,7 +9116,7 @@
         <v>45406.725694444402</v>
       </c>
     </row>
-    <row r="25" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -9432,7 +9439,7 @@
         <v>45406.703472222202</v>
       </c>
     </row>
-    <row r="26" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -9755,7 +9762,7 @@
         <v>45406.627083333296</v>
       </c>
     </row>
-    <row r="27" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -10078,7 +10085,7 @@
         <v>45406.624305555597</v>
       </c>
     </row>
-    <row r="28" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>186</v>
       </c>
@@ -10401,7 +10408,7 @@
         <v>45406.615277777797</v>
       </c>
     </row>
-    <row r="29" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>188</v>
       </c>
@@ -10724,7 +10731,7 @@
         <v>45406.613194444399</v>
       </c>
     </row>
-    <row r="30" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>189</v>
       </c>
@@ -11047,7 +11054,7 @@
         <v>45406.587500000001</v>
       </c>
     </row>
-    <row r="31" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>190</v>
       </c>
@@ -11370,7 +11377,7 @@
         <v>45406.551388888904</v>
       </c>
     </row>
-    <row r="32" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>191</v>
       </c>
@@ -11693,7 +11700,7 @@
         <v>45406.530555555597</v>
       </c>
     </row>
-    <row r="33" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -12016,7 +12023,7 @@
         <v>45406.486111111102</v>
       </c>
     </row>
-    <row r="34" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>193</v>
       </c>
@@ -12339,7 +12346,7 @@
         <v>45406.4597222222</v>
       </c>
     </row>
-    <row r="35" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>194</v>
       </c>
@@ -12662,7 +12669,7 @@
         <v>45406.443055555603</v>
       </c>
     </row>
-    <row r="36" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>195</v>
       </c>
@@ -12985,7 +12992,7 @@
         <v>45406.439583333296</v>
       </c>
     </row>
-    <row r="37" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -13308,7 +13315,7 @@
         <v>45406.423611111102</v>
       </c>
     </row>
-    <row r="38" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -13631,7 +13638,7 @@
         <v>45406.420833333301</v>
       </c>
     </row>
-    <row r="39" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -13954,7 +13961,7 @@
         <v>45406.391666666699</v>
       </c>
     </row>
-    <row r="40" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -14277,7 +14284,7 @@
         <v>45406.383333333302</v>
       </c>
     </row>
-    <row r="41" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -14600,7 +14607,7 @@
         <v>45406.357638888898</v>
       </c>
     </row>
-    <row r="42" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -14923,7 +14930,7 @@
         <v>45406.340972222199</v>
       </c>
     </row>
-    <row r="43" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -15246,7 +15253,7 @@
         <v>45406.338888888902</v>
       </c>
     </row>
-    <row r="44" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>205</v>
       </c>
@@ -15569,7 +15576,7 @@
         <v>45406.337500000001</v>
       </c>
     </row>
-    <row r="45" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>206</v>
       </c>
@@ -15892,7 +15899,7 @@
         <v>45406.337500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -16215,7 +16222,7 @@
         <v>45406.311805555597</v>
       </c>
     </row>
-    <row r="47" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>208</v>
       </c>
@@ -16538,7 +16545,7 @@
         <v>45406.311111111099</v>
       </c>
     </row>
-    <row r="48" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>210</v>
       </c>
@@ -16861,7 +16868,7 @@
         <v>45406.307638888902</v>
       </c>
     </row>
-    <row r="49" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -17184,7 +17191,7 @@
         <v>45406.301388888904</v>
       </c>
     </row>
-    <row r="50" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -17507,7 +17514,7 @@
         <v>45406.286805555603</v>
       </c>
     </row>
-    <row r="51" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -17830,7 +17837,7 @@
         <v>45406.270833333299</v>
       </c>
     </row>
-    <row r="52" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -18153,7 +18160,7 @@
         <v>45406.246527777803</v>
       </c>
     </row>
-    <row r="53" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>215</v>
       </c>
@@ -18476,7 +18483,7 @@
         <v>45406.235416666699</v>
       </c>
     </row>
-    <row r="54" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -18799,7 +18806,7 @@
         <v>45405.8659722222</v>
       </c>
     </row>
-    <row r="55" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -19122,7 +19129,7 @@
         <v>45405.852083333302</v>
       </c>
     </row>
-    <row r="56" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>218</v>
       </c>
@@ -19445,7 +19452,7 @@
         <v>45405.850694444402</v>
       </c>
     </row>
-    <row r="57" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>219</v>
       </c>
@@ -19768,7 +19775,7 @@
         <v>45405.8347222222</v>
       </c>
     </row>
-    <row r="58" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>221</v>
       </c>
@@ -20091,7 +20098,7 @@
         <v>45405.818055555603</v>
       </c>
     </row>
-    <row r="59" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -20414,7 +20421,7 @@
         <v>45405.815972222197</v>
       </c>
     </row>
-    <row r="60" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -20737,7 +20744,7 @@
         <v>45405.8125</v>
       </c>
     </row>
-    <row r="61" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>224</v>
       </c>
@@ -21060,7 +21067,7 @@
         <v>45405.796527777798</v>
       </c>
     </row>
-    <row r="62" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -21383,7 +21390,7 @@
         <v>45405.789583333302</v>
       </c>
     </row>
-    <row r="63" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -21706,7 +21713,7 @@
         <v>45405.783333333296</v>
       </c>
     </row>
-    <row r="64" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -22029,7 +22036,7 @@
         <v>45405.78125</v>
       </c>
     </row>
-    <row r="65" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -22352,7 +22359,7 @@
         <v>45405.7722222222</v>
       </c>
     </row>
-    <row r="66" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -22675,7 +22682,7 @@
         <v>45405.7722222222</v>
       </c>
     </row>
-    <row r="67" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>231</v>
       </c>
@@ -22998,7 +23005,7 @@
         <v>45405.770833333299</v>
       </c>
     </row>
-    <row r="68" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>232</v>
       </c>
@@ -23321,7 +23328,7 @@
         <v>45405.762499999997</v>
       </c>
     </row>
-    <row r="69" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>234</v>
       </c>
@@ -23644,7 +23651,7 @@
         <v>45405.762499999997</v>
       </c>
     </row>
-    <row r="70" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -23967,7 +23974,7 @@
         <v>45405.761805555601</v>
       </c>
     </row>
-    <row r="71" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>236</v>
       </c>
@@ -24290,7 +24297,7 @@
         <v>45405.723611111098</v>
       </c>
     </row>
-    <row r="72" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>237</v>
       </c>
@@ -24613,7 +24620,7 @@
         <v>45405.719444444403</v>
       </c>
     </row>
-    <row r="73" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>238</v>
       </c>
@@ -24936,7 +24943,7 @@
         <v>45405.716666666704</v>
       </c>
     </row>
-    <row r="74" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>239</v>
       </c>
@@ -25259,7 +25266,7 @@
         <v>45405.713194444397</v>
       </c>
     </row>
-    <row r="75" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -25582,7 +25589,7 @@
         <v>45405.7097222222</v>
       </c>
     </row>
-    <row r="76" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>241</v>
       </c>
@@ -25905,7 +25912,7 @@
         <v>45405.707638888904</v>
       </c>
     </row>
-    <row r="77" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -26228,7 +26235,7 @@
         <v>45405.690972222197</v>
       </c>
     </row>
-    <row r="78" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -26551,7 +26558,7 @@
         <v>45405.685416666704</v>
       </c>
     </row>
-    <row r="79" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -26874,7 +26881,7 @@
         <v>45405.666666666701</v>
       </c>
     </row>
-    <row r="80" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -27197,7 +27204,7 @@
         <v>45405.662499999999</v>
       </c>
     </row>
-    <row r="81" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -27520,7 +27527,7 @@
         <v>45405.659722222197</v>
       </c>
     </row>
-    <row r="82" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -27843,7 +27850,7 @@
         <v>45405.658333333296</v>
       </c>
     </row>
-    <row r="83" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -28166,7 +28173,7 @@
         <v>45405.565277777801</v>
       </c>
     </row>
-    <row r="84" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -28489,7 +28496,7 @@
         <v>45405.521527777797</v>
       </c>
     </row>
-    <row r="85" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -28812,7 +28819,7 @@
         <v>45405.5131944444</v>
       </c>
     </row>
-    <row r="86" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>252</v>
       </c>
@@ -29135,7 +29142,7 @@
         <v>45405.486111111102</v>
       </c>
     </row>
-    <row r="87" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>253</v>
       </c>
@@ -29458,7 +29465,7 @@
         <v>45405.478472222203</v>
       </c>
     </row>
-    <row r="88" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>254</v>
       </c>
@@ -29781,7 +29788,7 @@
         <v>45405.402777777803</v>
       </c>
     </row>
-    <row r="89" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -30104,7 +30111,7 @@
         <v>45405.324305555601</v>
       </c>
     </row>
-    <row r="90" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>256</v>
       </c>
@@ -30427,7 +30434,7 @@
         <v>45404.865277777797</v>
       </c>
     </row>
-    <row r="91" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>257</v>
       </c>
@@ -30750,7 +30757,7 @@
         <v>45404.859722222202</v>
       </c>
     </row>
-    <row r="92" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>259</v>
       </c>
@@ -31073,7 +31080,7 @@
         <v>45404.829861111102</v>
       </c>
     </row>
-    <row r="93" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>260</v>
       </c>
@@ -31396,7 +31403,7 @@
         <v>45404.761111111096</v>
       </c>
     </row>
-    <row r="94" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>261</v>
       </c>
@@ -31719,7 +31726,7 @@
         <v>45404.752777777801</v>
       </c>
     </row>
-    <row r="95" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>263</v>
       </c>
@@ -32042,7 +32049,7 @@
         <v>45404.660416666702</v>
       </c>
     </row>
-    <row r="96" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -32365,7 +32372,7 @@
         <v>45404.634722222203</v>
       </c>
     </row>
-    <row r="97" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>265</v>
       </c>
@@ -32688,7 +32695,7 @@
         <v>45404.561805555597</v>
       </c>
     </row>
-    <row r="98" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>266</v>
       </c>
@@ -33011,7 +33018,7 @@
         <v>45404.538194444402</v>
       </c>
     </row>
-    <row r="99" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>267</v>
       </c>
@@ -33334,7 +33341,7 @@
         <v>45404.537499999999</v>
       </c>
     </row>
-    <row r="100" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>268</v>
       </c>
@@ -33657,7 +33664,7 @@
         <v>45404.536805555603</v>
       </c>
     </row>
-    <row r="101" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>269</v>
       </c>
@@ -33980,7 +33987,7 @@
         <v>45404.536805555603</v>
       </c>
     </row>
-    <row r="102" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>270</v>
       </c>
@@ -34303,7 +34310,7 @@
         <v>45404.529166666704</v>
       </c>
     </row>
-    <row r="103" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>271</v>
       </c>
@@ -34626,7 +34633,7 @@
         <v>45404.5222222222</v>
       </c>
     </row>
-    <row r="104" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>272</v>
       </c>
@@ -34949,7 +34956,7 @@
         <v>45404.520138888904</v>
       </c>
     </row>
-    <row r="105" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>273</v>
       </c>
@@ -35272,7 +35279,7 @@
         <v>45404.460416666698</v>
       </c>
     </row>
-    <row r="106" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -35595,7 +35602,7 @@
         <v>45404.456944444399</v>
       </c>
     </row>
-    <row r="107" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>275</v>
       </c>
@@ -35918,7 +35925,7 @@
         <v>45404.454166666699</v>
       </c>
     </row>
-    <row r="108" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>276</v>
       </c>
@@ -36241,7 +36248,7 @@
         <v>45404.431250000001</v>
       </c>
     </row>
-    <row r="109" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>277</v>
       </c>
@@ -36564,7 +36571,7 @@
         <v>45404.398611111101</v>
       </c>
     </row>
-    <row r="110" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>278</v>
       </c>
@@ -36887,7 +36894,7 @@
         <v>45404.395833333299</v>
       </c>
     </row>
-    <row r="111" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>279</v>
       </c>
@@ -37210,7 +37217,7 @@
         <v>45404.374305555597</v>
       </c>
     </row>
-    <row r="112" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>280</v>
       </c>
@@ -37533,7 +37540,7 @@
         <v>45404.359027777798</v>
       </c>
     </row>
-    <row r="113" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>281</v>
       </c>
@@ -37856,7 +37863,7 @@
         <v>45404.349305555603</v>
       </c>
     </row>
-    <row r="114" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>282</v>
       </c>
@@ -38179,7 +38186,7 @@
         <v>45404.346527777801</v>
       </c>
     </row>
-    <row r="115" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>283</v>
       </c>
@@ -38502,7 +38509,7 @@
         <v>45404.286805555603</v>
       </c>
     </row>
-    <row r="116" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>284</v>
       </c>
@@ -38825,7 +38832,7 @@
         <v>45404.254166666702</v>
       </c>
     </row>
-    <row r="117" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>285</v>
       </c>
@@ -39148,7 +39155,7 @@
         <v>45404.238194444399</v>
       </c>
     </row>
-    <row r="118" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>286</v>
       </c>
@@ -39471,7 +39478,7 @@
         <v>45403.8659722222</v>
       </c>
     </row>
-    <row r="119" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>287</v>
       </c>
@@ -39794,7 +39801,7 @@
         <v>45403.804166666698</v>
       </c>
     </row>
-    <row r="120" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>289</v>
       </c>
@@ -40117,7 +40124,7 @@
         <v>45403.731249999997</v>
       </c>
     </row>
-    <row r="121" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>290</v>
       </c>
@@ -40440,7 +40447,7 @@
         <v>45403.7277777778</v>
       </c>
     </row>
-    <row r="122" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>291</v>
       </c>
@@ -40763,7 +40770,7 @@
         <v>45403.693055555603</v>
       </c>
     </row>
-    <row r="123" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>292</v>
       </c>
@@ -41086,7 +41093,7 @@
         <v>45403.684027777803</v>
       </c>
     </row>
-    <row r="124" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>293</v>
       </c>
@@ -41409,7 +41416,7 @@
         <v>45403.681944444397</v>
       </c>
     </row>
-    <row r="125" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>294</v>
       </c>
@@ -41732,7 +41739,7 @@
         <v>45403.6784722222</v>
       </c>
     </row>
-    <row r="126" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>295</v>
       </c>
@@ -42055,7 +42062,7 @@
         <v>45403.612500000003</v>
       </c>
     </row>
-    <row r="127" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>296</v>
       </c>
@@ -42378,7 +42385,7 @@
         <v>45403.582638888904</v>
       </c>
     </row>
-    <row r="128" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -42701,7 +42708,7 @@
         <v>45403.516666666699</v>
       </c>
     </row>
-    <row r="129" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>298</v>
       </c>
@@ -43024,7 +43031,7 @@
         <v>45403.503472222197</v>
       </c>
     </row>
-    <row r="130" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>299</v>
       </c>
@@ -43347,7 +43354,7 @@
         <v>45403.402083333298</v>
       </c>
     </row>
-    <row r="131" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>300</v>
       </c>
@@ -43670,7 +43677,7 @@
         <v>45403.3881944444</v>
       </c>
     </row>
-    <row r="132" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>301</v>
       </c>
@@ -43993,7 +44000,7 @@
         <v>45403.360416666699</v>
       </c>
     </row>
-    <row r="133" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>302</v>
       </c>
@@ -44316,7 +44323,7 @@
         <v>45403.35</v>
       </c>
     </row>
-    <row r="134" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>303</v>
       </c>
@@ -44639,7 +44646,7 @@
         <v>45403.292361111096</v>
       </c>
     </row>
-    <row r="135" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>304</v>
       </c>
@@ -44962,7 +44969,7 @@
         <v>45403.279861111099</v>
       </c>
     </row>
-    <row r="136" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>305</v>
       </c>
@@ -45285,7 +45292,7 @@
         <v>45403.2680555556</v>
       </c>
     </row>
-    <row r="137" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>306</v>
       </c>
@@ -45608,7 +45615,7 @@
         <v>45402.867361111101</v>
       </c>
     </row>
-    <row r="138" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>307</v>
       </c>
@@ -45931,7 +45938,7 @@
         <v>45402.776388888902</v>
       </c>
     </row>
-    <row r="139" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>308</v>
       </c>
@@ -46254,7 +46261,7 @@
         <v>45402.652777777803</v>
       </c>
     </row>
-    <row r="140" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>122</v>
       </c>
@@ -46577,7 +46584,7 @@
         <v>45402.622916666704</v>
       </c>
     </row>
-    <row r="141" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -46900,7 +46907,7 @@
         <v>45402.622916666704</v>
       </c>
     </row>
-    <row r="142" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>131</v>
       </c>
@@ -47223,7 +47230,7 @@
         <v>45402.622222222199</v>
       </c>
     </row>
-    <row r="143" spans="1:107" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>138</v>
       </c>
